--- a/Ds_atributes_Anime_2.xlsx
+++ b/Ds_atributes_Anime_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>worst anime</t>
+  </si>
+  <si>
+    <t>worst rating</t>
   </si>
 </sst>
 </file>
@@ -401,18 +407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,19 +436,25 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1999</v>
       </c>
@@ -461,16 +474,22 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>SUM(A2,1)</f>
         <v>2000</v>
@@ -491,16 +510,22 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A25" si="0">SUM(A3,1)</f>
         <v>2001</v>
@@ -521,16 +546,22 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -551,16 +582,22 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -581,16 +618,22 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -611,16 +654,22 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -641,16 +690,22 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -671,16 +726,22 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -701,16 +762,22 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -731,16 +798,22 @@
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -761,16 +834,22 @@
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -791,16 +870,22 @@
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -821,16 +906,22 @@
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -851,16 +942,22 @@
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -881,16 +978,22 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -911,16 +1014,22 @@
         <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -941,16 +1050,22 @@
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -971,16 +1086,22 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -1001,16 +1122,22 @@
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1031,16 +1158,22 @@
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1061,16 +1194,22 @@
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1091,16 +1230,22 @@
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1121,16 +1266,22 @@
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -1151,16 +1302,23 @@
         <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ds_atributes_Anime_2.xlsx
+++ b/Ds_atributes_Anime_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganya\PycharmProjects\Anime-DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>worst rating</t>
+  </si>
+  <si>
+    <t>max num of series</t>
+  </si>
+  <si>
+    <t>num of anime</t>
   </si>
 </sst>
 </file>
@@ -407,19 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="20.28515625" customWidth="1"/>
+    <col min="1" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,13 +457,19 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1999</v>
       </c>
@@ -480,16 +495,22 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>SUM(A2,1)</f>
         <v>2000</v>
@@ -516,16 +537,22 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A25" si="0">SUM(A3,1)</f>
         <v>2001</v>
@@ -552,16 +579,22 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -588,16 +621,22 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -624,16 +663,22 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -660,16 +705,22 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -696,16 +747,22 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -732,16 +789,22 @@
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -768,16 +831,22 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -804,16 +873,22 @@
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -840,16 +915,22 @@
         <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -876,16 +957,22 @@
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -912,16 +999,22 @@
         <v>8</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -948,16 +1041,22 @@
         <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -984,16 +1083,22 @@
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -1020,16 +1125,22 @@
         <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -1056,16 +1167,22 @@
         <v>8</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -1092,16 +1209,22 @@
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -1128,16 +1251,22 @@
         <v>8</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1164,16 +1293,22 @@
         <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1200,16 +1335,22 @@
         <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1236,16 +1377,22 @@
         <v>8</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1272,16 +1419,22 @@
         <v>8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -1308,13 +1461,19 @@
         <v>8</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
